--- a/data/messages2.xlsx
+++ b/data/messages2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gene_liu/Desktop/数据挖掘/题目/示例数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeshrz/Projects/tipdm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD48E0E-4F89-F94D-B6BA-C9ACBD6C141A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD55B0-EADA-E545-B0E9-A982F9E103E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>留言编号</t>
   </si>
@@ -248,134 +248,144 @@
     <t>咨询移动通信业务问题</t>
   </si>
   <si>
+    <t>A市魅力之城商铺无排烟管道，小区内到处油烟味</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市魅力之城小区自打交房入住后，底层商铺无排烟管道，经营餐馆导致大量油烟排入小区内，每天进出都搞得业主一身油烟味，而且每天到凌晨还在营业，烧烤店烧烤吆喝的声音严重影响居民休息，物业置若罔闻，几年了都没见处理。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市经济学院强制学生实习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+										各位领导干部大家好，我是A市经济学院的一名学生，临近毕业，学校开始组织学生参加实习，当然学生是必须实习，但是学生应该有自己的选择权，学校要求学生必须去学校安排的几个点实习，并且学生工资500元，他们必须要求我们去他们安排的地方。他们利用我们这种廉价劳动力。我知道我们必须实习，但是也有自己的选择。希望得到帮助
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+								A市经济学院强制16届电子商务跟企业物流专业实习。其中我们企业物流专业实习6个月，去江苏。暑假去过年回来。不去就毕不了业，学校跟企业签订了合同我们都不知道！学校很小但是这几年只顾招生，寝室住不了这么多人，叫直接强制学生去外面实习 回来了也没有寝室分配。我们暑假回来直接交毕业设计论文。三年制成功被物流学院变成了一年多。
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市经济学院组织学生外出打工合理吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市经济学院体育学院变相强制实习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市经济学院寒假过年期间组织学生去工厂工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+					　　书记您好，我是来自西地省经济学院体育学院的一名即将大四的学生，系里要求我们在实习前分别去指定的不同公司实训，我这的公司的工作内容和老师之前介绍以及我们专业几乎不对口，而且我学的高尔夫管理，却分配到其他系的实训点，老师说绝对不准提前回学校，不做满6个月不给实训分，不能毕业，没得商量。据说学校与公司签了合同，并且公司也要和我们签合同要工作到大四第一学期结束。我们家每年花几万块钱供我读完高尔夫管理，结果却跑到北京去做儿童运动馆的销售人员，求问我们该怎么办？在这实训纯属浪费时间，感觉自己就是被系里连哄带骗过来了。之前说好的做青少年高尔夫体适能教练，过来完全不是一码事，天天陪3，4岁的小孩玩，做前台接待，当儿童顾问。很无奈
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市经济学院强制学生外出实习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+									关于西地省A市经济学院寒假过年期间组织学生去工厂工作，过年本该是家人团聚的时光，很多家长一年回来一次，也就过年和自己孩子见一次面，可是这样搞，让这些家庭的家长怎么过好年？本该开开心心的，可自己孩子却不能陪自己过年，家长们的心有多难过！虽说不是强制性的，但不去不给学分，不给毕业，很多学子还是选择妥协，一个本科学校，怎么就变成了压榨学生的机器？交着昂贵的学费，打着最苦的工，外来求学的学子，怎么就变成了外来务工人员？难道这是本科新出台的政策嘛？学生是来求学的，不是来当廉价的劳动力的！				
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+								我叫朱琦梦，是2017年12月落户，并于2018年初在A市A6区首次购房的硕士毕业生，符合A市人才购房补贴新政，我在A市人才app上提供了全部真实的材料，却每次以“无近期在长缴纳社保记录”被拒。我是个体户，可以提供工商营业执照，在A6区也购买了灵活就业人员养老保险和医疗保险，可以提供社保参保证明，但是在线申请时，总是被拒，不知道何处出了问题，不知道什么材料不齐全。市住建委购房补贴的咨询电话打不通，无处问询，只得特来求问领导，希望给予指导帮助，需要补充什么材料，定当补齐。谢谢！
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+					让癌症病人看到光明吧，让他们感受到政府的关爱，世界的温暖，生命的尊严！老百姓得了癌症，实在太苦了啊。治疗费用昂贵。明明有药可治，就是买不起药品。只能等死。请国家医保局的领导听取百姓的建议，把抗癌药品纳入医保范围。得了癌症这种大病，生活由天堂跌入地狱。
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5区劳动东路魅力之城小区临街夜宵摊、烧烤摊24小时经营，油烟扰民。违法经营。本小区临街居民楼下店里面无烟管道。不得非法经营餐饮油烟。作为烧烤夜宵更加扰民，油烟24小时晕死人，尽管有个油烟机静化器做摆设也很少开，只是领导来开一下。之前关闭了其中一个烧烤店。难道只关了此一家。其他烧烤夜宵店凭什么非法经营。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+					尊敬的领导：您好！我们来自农村的是独生子女九零后，工薪阶层带着小孩家人医院看病，不到两个月时间，花费1万元多元，如小孩肺炎妇女妇科检查等，门诊开了很多药，这些都不能报销的，想住院普通情况医院又不让，小孩体弱多病各种开支，长此以往也是很大一笔开销，我们都快成贫困户。希望贵部门了解A市老百姓疾苦，在某些方面予以改革完善，提高省城A市医疗福利，增加A市户口含金量幸福感。门诊500-1000以上，也应纳入报销范畴。此致谢谢！
+				</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5区劳动东路魅力之城小区一楼的夜宵摊严重污染附近的空气</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问A市什么时候能普及5G网络？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5区劳动东路魅力之城小区一楼的夜宵摊严重污染附近的空气，急需处理！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望西地省把抗癌药品纳入医保范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在A市人才app上申请购房补贴为什么通不过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力之城小区临街门面油烟直排扰民</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5区劳动东路魅力之城小区临街门面烧烤夜宵摊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4县供销合作社在岗失业职工追缴社保</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A市江山帝景新房有严重安全隐患</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否分层单独补交超面积地款？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科魅力之城小区底层门店深夜经营，各种噪音扰民</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12123上申请驾驶证期满换证，一个星期了都无人受理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5区劳动东路魅力之城小区底层餐馆油烟扰民</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 					尊敬的领导：你好，本人前期向西地省通信管理局反馈，本人号码被移动短信恶意营销，两天内收到十几条变更套餐业务短信，当时发现套餐被改成了38和飞享，原来套餐是18飞享，发现套餐被变更后联系移动公司取消，当时客服回复可以取消下月生效套餐，当操作时系统提示无法取消，导致10月份套餐生效，当我要求改回18元飞享时候，因为套餐有0元10 G和18飞享套餐减免优惠无法降档，这两个业务我之前就已经办理，客服表示返回之前套餐必须要取这两个业务，我对这个结果不满意，多次投诉，也向通管局局长信箱反馈，最终无法得到解决，请领导协调移动公司返回之前套餐保持套餐原有优惠。
 				</t>
-  </si>
-  <si>
-    <t>A市魅力之城商铺无排烟管道，小区内到处油烟味</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市魅力之城小区自打交房入住后，底层商铺无排烟管道，经营餐馆导致大量油烟排入小区内，每天进出都搞得业主一身油烟味，而且每天到凌晨还在营业，烧烤店烧烤吆喝的声音严重影响居民休息，物业置若罔闻，几年了都没见处理。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市经济学院强制学生实习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-										各位领导干部大家好，我是A市经济学院的一名学生，临近毕业，学校开始组织学生参加实习，当然学生是必须实习，但是学生应该有自己的选择权，学校要求学生必须去学校安排的几个点实习，并且学生工资500元，他们必须要求我们去他们安排的地方。他们利用我们这种廉价劳动力。我知道我们必须实习，但是也有自己的选择。希望得到帮助
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-								A市经济学院强制16届电子商务跟企业物流专业实习。其中我们企业物流专业实习6个月，去江苏。暑假去过年回来。不去就毕不了业，学校跟企业签订了合同我们都不知道！学校很小但是这几年只顾招生，寝室住不了这么多人，叫直接强制学生去外面实习 回来了也没有寝室分配。我们暑假回来直接交毕业设计论文。三年制成功被物流学院变成了一年多。
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市经济学院组织学生外出打工合理吗？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市经济学院体育学院变相强制实习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市经济学院寒假过年期间组织学生去工厂工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-					　　书记您好，我是来自西地省经济学院体育学院的一名即将大四的学生，系里要求我们在实习前分别去指定的不同公司实训，我这的公司的工作内容和老师之前介绍以及我们专业几乎不对口，而且我学的高尔夫管理，却分配到其他系的实训点，老师说绝对不准提前回学校，不做满6个月不给实训分，不能毕业，没得商量。据说学校与公司签了合同，并且公司也要和我们签合同要工作到大四第一学期结束。我们家每年花几万块钱供我读完高尔夫管理，结果却跑到北京去做儿童运动馆的销售人员，求问我们该怎么办？在这实训纯属浪费时间，感觉自己就是被系里连哄带骗过来了。之前说好的做青少年高尔夫体适能教练，过来完全不是一码事，天天陪3，4岁的小孩玩，做前台接待，当儿童顾问。很无奈
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市经济学院强制学生外出实习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-									关于西地省A市经济学院寒假过年期间组织学生去工厂工作，过年本该是家人团聚的时光，很多家长一年回来一次，也就过年和自己孩子见一次面，可是这样搞，让这些家庭的家长怎么过好年？本该开开心心的，可自己孩子却不能陪自己过年，家长们的心有多难过！虽说不是强制性的，但不去不给学分，不给毕业，很多学子还是选择妥协，一个本科学校，怎么就变成了压榨学生的机器？交着昂贵的学费，打着最苦的工，外来求学的学子，怎么就变成了外来务工人员？难道这是本科新出台的政策嘛？学生是来求学的，不是来当廉价的劳动力的！				
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-								我叫朱琦梦，是2017年12月落户，并于2018年初在A市A6区首次购房的硕士毕业生，符合A市人才购房补贴新政，我在A市人才app上提供了全部真实的材料，却每次以“无近期在长缴纳社保记录”被拒。我是个体户，可以提供工商营业执照，在A6区也购买了灵活就业人员养老保险和医疗保险，可以提供社保参保证明，但是在线申请时，总是被拒，不知道何处出了问题，不知道什么材料不齐全。市住建委购房补贴的咨询电话打不通，无处问询，只得特来求问领导，希望给予指导帮助，需要补充什么材料，定当补齐。谢谢！
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-					让癌症病人看到光明吧，让他们感受到政府的关爱，世界的温暖，生命的尊严！老百姓得了癌症，实在太苦了啊。治疗费用昂贵。明明有药可治，就是买不起药品。只能等死。请国家医保局的领导听取百姓的建议，把抗癌药品纳入医保范围。得了癌症这种大病，生活由天堂跌入地狱。
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5区劳动东路魅力之城小区临街夜宵摊、烧烤摊24小时经营，油烟扰民。违法经营。本小区临街居民楼下店里面无烟管道。不得非法经营餐饮油烟。作为烧烤夜宵更加扰民，油烟24小时晕死人，尽管有个油烟机静化器做摆设也很少开，只是领导来开一下。之前关闭了其中一个烧烤店。难道只关了此一家。其他烧烤夜宵店凭什么非法经营。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-					尊敬的领导：您好！我们来自农村的是独生子女九零后，工薪阶层带着小孩家人医院看病，不到两个月时间，花费1万元多元，如小孩肺炎妇女妇科检查等，门诊开了很多药，这些都不能报销的，想住院普通情况医院又不让，小孩体弱多病各种开支，长此以往也是很大一笔开销，我们都快成贫困户。希望贵部门了解A市老百姓疾苦，在某些方面予以改革完善，提高省城A市医疗福利，增加A市户口含金量幸福感。门诊500-1000以上，也应纳入报销范畴。此致谢谢！
-				</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5区劳动东路魅力之城小区一楼的夜宵摊严重污染附近的空气</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请问A市什么时候能普及5G网络？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5区劳动东路魅力之城小区一楼的夜宵摊严重污染附近的空气，急需处理！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望西地省把抗癌药品纳入医保范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在A市人才app上申请购房补贴为什么通不过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力之城小区临街门面油烟直排扰民</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5区劳动东路魅力之城小区临街门面烧烤夜宵摊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4县供销合作社在岗失业职工追缴社保</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A市江山帝景新房有严重安全隐患</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能否分层单独补交超面积地款？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>万科魅力之城小区底层门店深夜经营，各种噪音扰民</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12123上申请驾驶证期满换证，一个星期了都无人受理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5区劳动东路魅力之城小区底层餐馆油烟扰民</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>东天省着火了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">领导你好，本人居住在东天省，最近他着火了，希望有人能管管。					
+				</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -827,13 +837,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="7">
         <v>42894.730092592603</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5">
         <v>9</v>
@@ -850,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7">
         <v>43419.671666666698</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -873,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
         <v>43716.876377314802</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -896,13 +906,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
         <v>43733.0219097222</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -942,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7">
         <v>43667.437222222201</v>
@@ -965,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7">
         <v>43678.680578703701</v>
@@ -1034,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
         <v>43599.473761574103</v>
@@ -1057,7 +1067,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7">
         <v>43713.520150463002</v>
@@ -1103,13 +1113,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
         <v>43791.612662036998</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -1149,7 +1159,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
         <v>43615.731967592597</v>
@@ -1195,7 +1205,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7">
         <v>43581.644930555602</v>
@@ -1241,7 +1251,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
         <v>43724.783668981501</v>
@@ -1264,13 +1274,13 @@
         <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
         <v>43695.613888888904</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -1287,7 +1297,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7">
         <v>43712.875208333302</v>
@@ -1333,7 +1343,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7">
         <v>43836.430914351797</v>
@@ -1362,7 +1372,7 @@
         <v>43628.3493171296</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -1379,13 +1389,13 @@
         <v>55</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7">
         <v>43583.731145833299</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -1402,7 +1412,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7">
         <v>43718.2593402778</v>
@@ -1425,13 +1435,13 @@
         <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7">
         <v>43237.355601851901</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5">
         <v>3</v>
@@ -1448,7 +1458,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="7">
         <v>43774.438634259299</v>
@@ -1486,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="210">
       <c r="A31" s="5">
         <v>342119</v>
       </c>
@@ -1499,13 +1509,36 @@
       <c r="D31" s="7">
         <v>43756.995115740698</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>66</v>
+      <c r="E31" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
       </c>
       <c r="G31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45">
+      <c r="A32" s="5">
+        <v>342119</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43756.995115740698</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>0</v>
       </c>
     </row>
